--- a/input/general/biomass_heat_content.xlsx
+++ b/input/general/biomass_heat_content.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Documents/Information &amp; Documents/CEDS_Project/CEDS/input/general/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9306D124-1069-F94A-93D2-78EDCE95B294}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="-80" windowWidth="21600" windowHeight="13740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="21600" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bio EF Calcs.xlsx" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,21 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="conv_toe_agwaste">[3]Conversions!$C$6</definedName>
-    <definedName name="conv_toe_charc">[3]Conversions!$C$3</definedName>
-    <definedName name="conv_toe_dung">[3]Conversions!$C$5</definedName>
-    <definedName name="conv_toe_fw">[3]Conversions!$C$4</definedName>
-    <definedName name="conv_toe_fw2">[4]Conversions!$C$4</definedName>
-    <definedName name="g">[4]Conversions!$C$4</definedName>
+    <definedName name="conv_toe_agwaste">[1]Conversions!$C$6</definedName>
+    <definedName name="conv_toe_charc">[1]Conversions!$C$3</definedName>
+    <definedName name="conv_toe_dung">[1]Conversions!$C$5</definedName>
+    <definedName name="conv_toe_fw">[1]Conversions!$C$4</definedName>
+    <definedName name="conv_toe_fw2">[2]Conversions!$C$4</definedName>
+    <definedName name="g">[2]Conversions!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -35,12 +47,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>AndrewM</author>
   </authors>
   <commentList>
-    <comment ref="A54" authorId="0">
+    <comment ref="A54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="100">
   <si>
     <t xml:space="preserve">According to the IEA, bagasse is included in industrial biofuel estimates.  Before we knew this, Suneeta calculated bagasse separately.  </t>
   </si>
@@ -418,21 +430,22 @@
   <si>
     <t>Bagasse</t>
   </si>
+  <si>
+    <t>MJ/kg</t>
+  </si>
+  <si>
+    <t>(Roughly equivalent to wood at ~23% water content - Wood Fuels Handbook - FAO (Krajnc 2015)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -449,6 +462,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -475,6 +489,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -506,6 +521,10 @@
       <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -664,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -673,7 +692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -706,8 +725,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -729,8 +748,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -739,17 +756,128 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Conversions"/>
+      <sheetName val="Pop"/>
+      <sheetName val="SPEW"/>
+      <sheetName val="Res_FW"/>
+      <sheetName val="Res_CC"/>
+      <sheetName val="Res_Ag Res"/>
+      <sheetName val="Res_Dung"/>
+      <sheetName val="FuelTotal"/>
+      <sheetName val="Sorting"/>
+      <sheetName val="FW Total"/>
+      <sheetName val="FW Ind"/>
+      <sheetName val="Bagasse"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="3">
+          <cell r="C3">
+            <v>1359.3506493506493</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>3033.9130434782605</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>330</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>2791.2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Conversions"/>
+      <sheetName val="Observ"/>
+      <sheetName val="OneCountry"/>
+      <sheetName val="per_cap"/>
+      <sheetName val="per_cap_comp"/>
+      <sheetName val="forest_urban"/>
+      <sheetName val="solid"/>
+      <sheetName val="GDP"/>
+      <sheetName val="population"/>
+      <sheetName val="RWEDP"/>
+      <sheetName val="FAOStat"/>
+      <sheetName val="res_bio"/>
+      <sheetName val="res_coal"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="C4">
+            <v>3033.9130434782605</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Input Assumptions"/>
@@ -1203,8 +1331,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Legend"/>
@@ -1545,105 +1673,6 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Conversions"/>
-      <sheetName val="Pop"/>
-      <sheetName val="SPEW"/>
-      <sheetName val="Res_FW"/>
-      <sheetName val="Res_CC"/>
-      <sheetName val="Res_Ag Res"/>
-      <sheetName val="Res_Dung"/>
-      <sheetName val="FuelTotal"/>
-      <sheetName val="Sorting"/>
-      <sheetName val="FW Total"/>
-      <sheetName val="FW Ind"/>
-      <sheetName val="Bagasse"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="3">
-          <cell r="C3">
-            <v>1359.3506493506493</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>3033.9130434782605</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>330</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>2791.2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Conversions"/>
-      <sheetName val="Observ"/>
-      <sheetName val="OneCountry"/>
-      <sheetName val="per_cap"/>
-      <sheetName val="per_cap_comp"/>
-      <sheetName val="forest_urban"/>
-      <sheetName val="solid"/>
-      <sheetName val="GDP"/>
-      <sheetName val="population"/>
-      <sheetName val="RWEDP"/>
-      <sheetName val="FAOStat"/>
-      <sheetName val="res_bio"/>
-      <sheetName val="res_coal"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="C4">
-            <v>3033.9130434782605</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1968,15 +1997,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K2" sqref="K2:K6"/>
+      <selection pane="topRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
@@ -1989,12 +2018,12 @@
     <col min="9" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -2018,7 +2047,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
@@ -2039,11 +2068,11 @@
         <v>47</v>
       </c>
       <c r="K3" s="26">
-        <f>C3*10^6*2.388458966275*10^(-8)</f>
-        <v>0.38215343460400003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <f>C3*(10^6)/42*10^(-6)</f>
+        <v>0.38095238095238093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -2064,11 +2093,11 @@
         <v>50</v>
       </c>
       <c r="K4" s="26">
-        <f t="shared" ref="K4:K6" si="0">C4*10^6*2.388458966275*10^(-8)</f>
-        <v>0.32244196044712498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <f t="shared" ref="K4:K6" si="0">C4*(10^6)/42*10^(-6)</f>
+        <v>0.3214285714285714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -2090,10 +2119,10 @@
       </c>
       <c r="K5" s="26">
         <f t="shared" si="0"/>
-        <v>0.34632655010987501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.34523809523809523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
@@ -2115,10 +2144,10 @@
       </c>
       <c r="K6" s="26">
         <f t="shared" si="0"/>
-        <v>0.57323015190600002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0.57142857142857151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>57</v>
       </c>
@@ -2129,7 +2158,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -2157,7 +2186,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>60</v>
       </c>
@@ -2187,7 +2216,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>64</v>
       </c>
@@ -2217,7 +2246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>53</v>
       </c>
@@ -2240,7 +2269,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>60</v>
       </c>
@@ -2270,7 +2299,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -2300,7 +2329,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
@@ -2323,7 +2352,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>51</v>
       </c>
@@ -2346,12 +2375,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="13" t="str">
         <f>$B$10</f>
@@ -2382,7 +2411,7 @@
         <v>traditional</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="17" customFormat="1">
+    <row r="20" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>71</v>
       </c>
@@ -2422,7 +2451,7 @@
       </c>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2461,7 +2490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -2500,7 +2529,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -2539,7 +2568,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -2578,7 +2607,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -2617,7 +2646,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -2656,7 +2685,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -2695,7 +2724,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -2734,7 +2763,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -2773,7 +2802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -2812,7 +2841,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -2851,7 +2880,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -2890,7 +2919,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -2929,7 +2958,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -2968,12 +2997,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="13" t="str">
         <f>$C$19</f>
@@ -2996,7 +3025,7 @@
         <v>traditional</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>71</v>
       </c>
@@ -3027,7 +3056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -3035,7 +3064,7 @@
         <v>49</v>
       </c>
       <c r="C39" s="9" t="str">
-        <f>IF($B39="Commercial",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A39,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B39="Commercial",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A39,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v/>
       </c>
       <c r="D39" s="18">
@@ -3043,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="9">
-        <f>IF($B39="Traditional",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A39,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B39="Traditional",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A39,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v>0.7406858003484933</v>
       </c>
       <c r="F39" s="9">
@@ -3058,7 +3087,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -3066,7 +3095,7 @@
         <v>54</v>
       </c>
       <c r="C40" s="9">
-        <f>IF($B40="Commercial",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A40,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B40="Commercial",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A40,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v>1.35</v>
       </c>
       <c r="D40" s="18">
@@ -3074,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="9" t="str">
-        <f>IF($B40="Traditional",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A40,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B40="Traditional",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A40,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v/>
       </c>
       <c r="F40" s="9" t="str">
@@ -3089,7 +3118,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -3097,7 +3126,7 @@
         <v>54</v>
       </c>
       <c r="C41" s="9">
-        <f>IF($B41="Commercial",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A41,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B41="Commercial",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A41,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v>1.35</v>
       </c>
       <c r="D41" s="18">
@@ -3105,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="9" t="str">
-        <f>IF($B41="Traditional",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A41,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B41="Traditional",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A41,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v/>
       </c>
       <c r="F41" s="9" t="str">
@@ -3120,7 +3149,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -3128,7 +3157,7 @@
         <v>49</v>
       </c>
       <c r="C42" s="9" t="str">
-        <f>IF($B42="Commercial",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A42,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B42="Commercial",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A42,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v/>
       </c>
       <c r="D42" s="18">
@@ -3136,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="9">
-        <f>IF($B42="Traditional",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A42,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B42="Traditional",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A42,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v>1.0040069406275216</v>
       </c>
       <c r="F42" s="9">
@@ -3151,7 +3180,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -3159,7 +3188,7 @@
         <v>54</v>
       </c>
       <c r="C43" s="9">
-        <f>IF($B43="Commercial",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A43,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B43="Commercial",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A43,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v>1.35</v>
       </c>
       <c r="D43" s="18">
@@ -3167,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="9" t="str">
-        <f>IF($B43="Traditional",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A43,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B43="Traditional",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A43,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v/>
       </c>
       <c r="F43" s="9" t="str">
@@ -3182,7 +3211,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -3190,7 +3219,7 @@
         <v>54</v>
       </c>
       <c r="C44" s="9">
-        <f>IF($B44="Commercial",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A44,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B44="Commercial",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A44,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v>1.35</v>
       </c>
       <c r="D44" s="18">
@@ -3198,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="9" t="str">
-        <f>IF($B44="Traditional",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A44,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B44="Traditional",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A44,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v/>
       </c>
       <c r="F44" s="9" t="str">
@@ -3213,7 +3242,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -3221,7 +3250,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="9" t="str">
-        <f>IF($B45="Commercial",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A45,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B45="Commercial",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A45,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v/>
       </c>
       <c r="D45" s="18">
@@ -3229,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="9">
-        <f>IF($B45="Traditional",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A45,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B45="Traditional",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A45,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v>0.70082430010607955</v>
       </c>
       <c r="F45" s="9">
@@ -3244,7 +3273,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -3252,7 +3281,7 @@
         <v>54</v>
       </c>
       <c r="C46" s="9">
-        <f>IF($B46="Commercial",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A46,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B46="Commercial",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A46,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v>1.35</v>
       </c>
       <c r="D46" s="18">
@@ -3260,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="9" t="str">
-        <f>IF($B46="Traditional",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A46,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B46="Traditional",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A46,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v/>
       </c>
       <c r="F46" s="9" t="str">
@@ -3275,7 +3304,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -3283,7 +3312,7 @@
         <v>54</v>
       </c>
       <c r="C47" s="9">
-        <f>IF($B47="Commercial",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A47,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B47="Commercial",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A47,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v>1.35</v>
       </c>
       <c r="D47" s="18">
@@ -3291,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="9" t="str">
-        <f>IF($B47="Traditional",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A47,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B47="Traditional",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A47,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v/>
       </c>
       <c r="F47" s="19">
@@ -3306,7 +3335,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -3314,7 +3343,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="9" t="str">
-        <f>IF($B48="Commercial",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A48,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B48="Commercial",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A48,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v/>
       </c>
       <c r="D48" s="18">
@@ -3322,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="9">
-        <f>IF($B48="Traditional",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A48,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B48="Traditional",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A48,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v>0.96287841902515781</v>
       </c>
       <c r="F48" s="9">
@@ -3337,7 +3366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -3345,7 +3374,7 @@
         <v>54</v>
       </c>
       <c r="C49" s="9">
-        <f>IF($B49="Commercial",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A49,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B49="Commercial",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A49,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v>0.41</v>
       </c>
       <c r="D49" s="18">
@@ -3353,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="9" t="str">
-        <f>IF($B49="Traditional",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A49,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B49="Traditional",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A49,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v/>
       </c>
       <c r="F49" s="9" t="str">
@@ -3368,7 +3397,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -3376,7 +3405,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="9" t="str">
-        <f>IF($B50="Commercial",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A50,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B50="Commercial",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A50,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v/>
       </c>
       <c r="D50" s="18">
@@ -3384,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="9">
-        <f>IF($B50="Traditional",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A50,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B50="Traditional",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A50,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v>0.71535921826132054</v>
       </c>
       <c r="F50" s="9">
@@ -3399,7 +3428,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -3407,7 +3436,7 @@
         <v>54</v>
       </c>
       <c r="C51" s="9">
-        <f>IF($B51="Commercial",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A51,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B51="Commercial",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A51,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v>1.35</v>
       </c>
       <c r="D51" s="18">
@@ -3415,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="9" t="str">
-        <f>IF($B51="Traditional",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A51,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B51="Traditional",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A51,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v/>
       </c>
       <c r="F51" s="9" t="str">
@@ -3430,7 +3459,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -3438,7 +3467,7 @@
         <v>54</v>
       </c>
       <c r="C52" s="9">
-        <f>IF($B52="Commercial",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A52,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B52="Commercial",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A52,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v>1.35</v>
       </c>
       <c r="D52" s="18">
@@ -3446,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="9" t="str">
-        <f>IF($B52="Traditional",INDEX('[1]Wood Split'!$F$5:$F$18,MATCH($A52,'[1]Wood Split'!$A$5:$A$18,0)),"")</f>
+        <f>IF($B52="Traditional",INDEX('[3]Wood Split'!$F$5:$F$18,MATCH($A52,'[3]Wood Split'!$A$5:$A$18,0)),"")</f>
         <v/>
       </c>
       <c r="F52" s="9" t="str">
@@ -3461,12 +3490,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>71</v>
       </c>
@@ -3478,7 +3507,7 @@
       </c>
       <c r="D55" s="20"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
         <v>91</v>
       </c>
@@ -3486,203 +3515,203 @@
       <c r="C56" s="22"/>
       <c r="D56" s="20"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>73</v>
       </c>
       <c r="B57" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$4:$K$18,MATCH($A57,'[1]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([2]BC_calcs!$D$84:$Q$84,1,MATCH($A57,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$4:$K$18,MATCH($A57,'[3]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([4]BC_calcs!$D$84:$Q$84,1,MATCH($A57,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>3.7558480609715728E-2</v>
       </c>
       <c r="C57" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$30:$K$44,MATCH($A57,'[1]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([2]OC_calcs!$D$86:$Q$86,1,MATCH($A57,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$30:$K$44,MATCH($A57,'[3]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([4]OC_calcs!$D$86:$Q$86,1,MATCH($A57,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>5.0788172422917797E-2</v>
       </c>
       <c r="D57" s="20"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>74</v>
       </c>
       <c r="B58" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$4:$K$18,MATCH($A58,'[1]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([2]BC_calcs!$D$84:$Q$84,1,MATCH($A58,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$4:$K$18,MATCH($A58,'[3]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([4]BC_calcs!$D$84:$Q$84,1,MATCH($A58,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>3.4420610961357549E-3</v>
       </c>
       <c r="C58" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$30:$K$44,MATCH($A58,'[1]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([2]OC_calcs!$D$86:$Q$86,1,MATCH($A58,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$30:$K$44,MATCH($A58,'[3]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([4]OC_calcs!$D$86:$Q$86,1,MATCH($A58,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>1.1056900169151168E-2</v>
       </c>
       <c r="D58" s="20"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>75</v>
       </c>
       <c r="B59" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$4:$K$18,MATCH($A59,'[1]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([2]BC_calcs!$D$84:$Q$84,1,MATCH($A59,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$4:$K$18,MATCH($A59,'[3]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([4]BC_calcs!$D$84:$Q$84,1,MATCH($A59,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>6.773189086731763E-3</v>
       </c>
       <c r="C59" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$30:$K$44,MATCH($A59,'[1]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([2]OC_calcs!$D$86:$Q$86,1,MATCH($A59,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$30:$K$44,MATCH($A59,'[3]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([4]OC_calcs!$D$86:$Q$86,1,MATCH($A59,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>3.7439590257036179E-2</v>
       </c>
       <c r="D59" s="20"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>76</v>
       </c>
       <c r="B60" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$4:$K$18,MATCH($A60,'[1]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([2]BC_calcs!$D$84:$Q$84,1,MATCH($A60,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$4:$K$18,MATCH($A60,'[3]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([4]BC_calcs!$D$84:$Q$84,1,MATCH($A60,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>1.7437457740845327E-3</v>
       </c>
       <c r="C60" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$30:$K$44,MATCH($A60,'[1]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([2]OC_calcs!$D$86:$Q$86,1,MATCH($A60,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$30:$K$44,MATCH($A60,'[3]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([4]OC_calcs!$D$86:$Q$86,1,MATCH($A60,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>1.8659572797351711E-3</v>
       </c>
       <c r="D60" s="20"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>77</v>
       </c>
       <c r="B61" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$4:$K$18,MATCH($A61,'[1]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([2]BC_calcs!$D$84:$Q$84,1,MATCH($A61,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$4:$K$18,MATCH($A61,'[3]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([4]BC_calcs!$D$84:$Q$84,1,MATCH($A61,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>2.4873530944262319E-2</v>
       </c>
       <c r="C61" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$30:$K$44,MATCH($A61,'[1]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([2]OC_calcs!$D$86:$Q$86,1,MATCH($A61,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$30:$K$44,MATCH($A61,'[3]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([4]OC_calcs!$D$86:$Q$86,1,MATCH($A61,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>0.14551744905646391</v>
       </c>
       <c r="D61" s="20"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>78</v>
       </c>
       <c r="B62" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$4:$K$18,MATCH($A62,'[1]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([2]BC_calcs!$D$84:$Q$84,1,MATCH($A62,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$4:$K$18,MATCH($A62,'[3]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([4]BC_calcs!$D$84:$Q$84,1,MATCH($A62,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>2.2592900857125123E-2</v>
       </c>
       <c r="C62" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$30:$K$44,MATCH($A62,'[1]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([2]OC_calcs!$D$86:$Q$86,1,MATCH($A62,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$30:$K$44,MATCH($A62,'[3]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([4]OC_calcs!$D$86:$Q$86,1,MATCH($A62,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>0.13184464398494755</v>
       </c>
       <c r="D62" s="20"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>79</v>
       </c>
       <c r="B63" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$4:$K$18,MATCH($A63,'[1]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([2]BC_calcs!$D$84:$Q$84,1,MATCH($A63,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$4:$K$18,MATCH($A63,'[3]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([4]BC_calcs!$D$84:$Q$84,1,MATCH($A63,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>8.0761745347182161E-3</v>
       </c>
       <c r="C63" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$30:$K$44,MATCH($A63,'[1]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([2]OC_calcs!$D$86:$Q$86,1,MATCH($A63,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$30:$K$44,MATCH($A63,'[3]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([4]OC_calcs!$D$86:$Q$86,1,MATCH($A63,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>1.2319388467807975E-2</v>
       </c>
       <c r="D63" s="20"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>80</v>
       </c>
       <c r="B64" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$4:$K$18,MATCH($A64,'[1]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([2]BC_calcs!$D$84:$Q$84,1,MATCH($A64,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$4:$K$18,MATCH($A64,'[3]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([4]BC_calcs!$D$84:$Q$84,1,MATCH($A64,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>5.9685917613247575E-6</v>
       </c>
       <c r="C64" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$30:$K$44,MATCH($A64,'[1]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([2]OC_calcs!$D$86:$Q$86,1,MATCH($A64,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$30:$K$44,MATCH($A64,'[3]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([4]OC_calcs!$D$86:$Q$86,1,MATCH($A64,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>5.9685917613247575E-6</v>
       </c>
       <c r="D64" s="20"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>81</v>
       </c>
       <c r="B65" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$4:$K$18,MATCH($A65,'[1]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([2]BC_calcs!$D$84:$Q$84,1,MATCH($A65,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$4:$K$18,MATCH($A65,'[3]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([4]BC_calcs!$D$84:$Q$84,1,MATCH($A65,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>1.0046618339639201E-3</v>
       </c>
       <c r="C65" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$30:$K$44,MATCH($A65,'[1]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([2]OC_calcs!$D$86:$Q$86,1,MATCH($A65,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$30:$K$44,MATCH($A65,'[3]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([4]OC_calcs!$D$86:$Q$86,1,MATCH($A65,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>6.411715643132177E-3</v>
       </c>
       <c r="D65" s="20"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$4:$K$18,MATCH($A66,'[1]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([2]BC_calcs!$D$84:$Q$84,1,MATCH($A66,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$4:$K$18,MATCH($A66,'[3]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([4]BC_calcs!$D$84:$Q$84,1,MATCH($A66,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>2.3140468987578101E-3</v>
       </c>
       <c r="C66" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$30:$K$44,MATCH($A66,'[1]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([2]OC_calcs!$D$86:$Q$86,1,MATCH($A66,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$30:$K$44,MATCH($A66,'[3]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([4]OC_calcs!$D$86:$Q$86,1,MATCH($A66,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>2.3536799778386564E-3</v>
       </c>
       <c r="D66" s="20"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>83</v>
       </c>
       <c r="B67" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$4:$K$18,MATCH($A67,'[1]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([2]BC_calcs!$D$84:$Q$84,1,MATCH($A67,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$4:$K$18,MATCH($A67,'[3]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([4]BC_calcs!$D$84:$Q$84,1,MATCH($A67,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>2.0112841240392263E-3</v>
       </c>
       <c r="C67" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$30:$K$44,MATCH($A67,'[1]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([2]OC_calcs!$D$86:$Q$86,1,MATCH($A67,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$30:$K$44,MATCH($A67,'[3]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([4]OC_calcs!$D$86:$Q$86,1,MATCH($A67,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>3.016926186058839E-3</v>
       </c>
       <c r="D67" s="20"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>84</v>
       </c>
       <c r="B68" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$4:$K$18,MATCH($A68,'[1]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([2]BC_calcs!$D$84:$Q$84,1,MATCH($A68,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$4:$K$18,MATCH($A68,'[3]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([4]BC_calcs!$D$84:$Q$84,1,MATCH($A68,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>9.6286306294891561E-3</v>
       </c>
       <c r="C68" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$30:$K$44,MATCH($A68,'[1]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([2]OC_calcs!$D$86:$Q$86,1,MATCH($A68,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$30:$K$44,MATCH($A68,'[3]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([4]OC_calcs!$D$86:$Q$86,1,MATCH($A68,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>1.3732639570416391E-2</v>
       </c>
       <c r="D68" s="20"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>85</v>
       </c>
       <c r="B69" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$4:$K$18,MATCH($A69,'[1]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([2]BC_calcs!$D$84:$Q$84,1,MATCH($A69,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$4:$K$18,MATCH($A69,'[3]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([4]BC_calcs!$D$84:$Q$84,1,MATCH($A69,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>4.8118927301521869E-2</v>
       </c>
       <c r="C69" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$30:$K$44,MATCH($A69,'[1]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([2]OC_calcs!$D$86:$Q$86,1,MATCH($A69,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$30:$K$44,MATCH($A69,'[3]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([4]OC_calcs!$D$86:$Q$86,1,MATCH($A69,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>0.26607390448505985</v>
       </c>
       <c r="D69" s="20"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>86</v>
       </c>
       <c r="B70" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$4:$K$18,MATCH($A70,'[1]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([2]BC_calcs!$D$84:$Q$84,1,MATCH($A70,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$4:$K$18,MATCH($A70,'[3]Final Biomass EFs'!$A$4:$A$18,0))*INDEX([4]BC_calcs!$D$84:$Q$84,1,MATCH($A70,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>4.6618126935899118E-2</v>
       </c>
       <c r="C70" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$30:$K$44,MATCH($A70,'[1]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([2]OC_calcs!$D$86:$Q$86,1,MATCH($A70,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$30:$K$44,MATCH($A70,'[3]Final Biomass EFs'!$A$30:$A$44,0))*INDEX([4]OC_calcs!$D$86:$Q$86,1,MATCH($A70,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>0.21955932944561632</v>
       </c>
       <c r="D70" s="20"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
         <v>92</v>
       </c>
@@ -3690,72 +3719,72 @@
       <c r="C71" s="22"/>
       <c r="D71" s="20"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$22:$K$26,MATCH($A72,'[1]Final Biomass EFs'!$A$22:$A$26,0))*INDEX([2]BC_calcs!$D$86:$Q$86,1,MATCH($A72,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$22:$K$26,MATCH($A72,'[3]Final Biomass EFs'!$A$22:$A$26,0))*INDEX([4]BC_calcs!$D$86:$Q$86,1,MATCH($A72,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>0.25876208442879295</v>
       </c>
       <c r="C72" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$48:$K$52,MATCH($A72,'[1]Final Biomass EFs'!$A$48:$A$52,0))*INDEX([2]OC_calcs!$D$88:$Q$88,1,MATCH($A72,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$48:$K$52,MATCH($A72,'[3]Final Biomass EFs'!$A$48:$A$52,0))*INDEX([4]OC_calcs!$D$88:$Q$88,1,MATCH($A72,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>0.90719227203529829</v>
       </c>
       <c r="D72" s="20"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$22:$K$26,MATCH($A73,'[1]Final Biomass EFs'!$A$22:$A$26,0))*INDEX([2]BC_calcs!$D$86:$Q$86,1,MATCH($A73,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$22:$K$26,MATCH($A73,'[3]Final Biomass EFs'!$A$22:$A$26,0))*INDEX([4]BC_calcs!$D$86:$Q$86,1,MATCH($A73,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>0.44395659685980143</v>
       </c>
       <c r="C73" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$48:$K$52,MATCH($A73,'[1]Final Biomass EFs'!$A$48:$A$52,0))*INDEX([2]OC_calcs!$D$88:$Q$88,1,MATCH($A73,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$48:$K$52,MATCH($A73,'[3]Final Biomass EFs'!$A$48:$A$52,0))*INDEX([4]OC_calcs!$D$88:$Q$88,1,MATCH($A73,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>1.5715151393598035</v>
       </c>
       <c r="D73" s="20"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>79</v>
       </c>
       <c r="B74" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$22:$K$26,MATCH($A74,'[1]Final Biomass EFs'!$A$22:$A$26,0))*INDEX([2]BC_calcs!$D$86:$Q$86,1,MATCH($A74,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$22:$K$26,MATCH($A74,'[3]Final Biomass EFs'!$A$22:$A$26,0))*INDEX([4]BC_calcs!$D$86:$Q$86,1,MATCH($A74,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>0.19453096774151155</v>
       </c>
       <c r="C74" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$48:$K$52,MATCH($A74,'[1]Final Biomass EFs'!$A$48:$A$52,0))*INDEX([2]OC_calcs!$D$88:$Q$88,1,MATCH($A74,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$48:$K$52,MATCH($A74,'[3]Final Biomass EFs'!$A$48:$A$52,0))*INDEX([4]OC_calcs!$D$88:$Q$88,1,MATCH($A74,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>0.71768688472266051</v>
       </c>
       <c r="D74" s="20"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>82</v>
       </c>
       <c r="B75" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$22:$K$26,MATCH($A75,'[1]Final Biomass EFs'!$A$22:$A$26,0))*INDEX([2]BC_calcs!$D$86:$Q$86,1,MATCH($A75,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$22:$K$26,MATCH($A75,'[3]Final Biomass EFs'!$A$22:$A$26,0))*INDEX([4]BC_calcs!$D$86:$Q$86,1,MATCH($A75,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>4.6067182706932719E-2</v>
       </c>
       <c r="C75" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$48:$K$52,MATCH($A75,'[1]Final Biomass EFs'!$A$48:$A$52,0))*INDEX([2]OC_calcs!$D$88:$Q$88,1,MATCH($A75,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$48:$K$52,MATCH($A75,'[3]Final Biomass EFs'!$A$48:$A$52,0))*INDEX([4]OC_calcs!$D$88:$Q$88,1,MATCH($A75,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>0.17722483169932099</v>
       </c>
       <c r="D75" s="20"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>84</v>
       </c>
       <c r="B76" s="23">
-        <f>INDEX('[1]Final Biomass EFs'!$K$22:$K$26,MATCH($A76,'[1]Final Biomass EFs'!$A$22:$A$26,0))*INDEX([2]BC_calcs!$D$86:$Q$86,1,MATCH($A76,[2]BC_calcs!$D$55:$Q$55,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$22:$K$26,MATCH($A76,'[3]Final Biomass EFs'!$A$22:$A$26,0))*INDEX([4]BC_calcs!$D$86:$Q$86,1,MATCH($A76,[4]BC_calcs!$D$55:$Q$55,0))</f>
         <v>0.18125489675062256</v>
       </c>
       <c r="C76" s="24">
-        <f>INDEX('[1]Final Biomass EFs'!$K$48:$K$52,MATCH($A76,'[1]Final Biomass EFs'!$A$48:$A$52,0))*INDEX([2]OC_calcs!$D$88:$Q$88,1,MATCH($A76,[2]OC_calcs!$D$56:$Q$56,0))</f>
+        <f>INDEX('[3]Final Biomass EFs'!$K$48:$K$52,MATCH($A76,'[3]Final Biomass EFs'!$A$48:$A$52,0))*INDEX([4]OC_calcs!$D$88:$Q$88,1,MATCH($A76,[4]OC_calcs!$D$56:$Q$56,0))</f>
         <v>0.66068439918421884</v>
       </c>
       <c r="D76" s="20"/>
@@ -3774,37 +3803,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9.1640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14">
+    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="13" thickBot="1">
+    <row r="4" spans="1:19" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>97</v>
       </c>
@@ -3827,7 +3856,7 @@
       <c r="R5" s="31"/>
       <c r="S5" s="32"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
@@ -3850,7 +3879,7 @@
       <c r="R6" s="34"/>
       <c r="S6" s="35"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
@@ -3873,7 +3902,7 @@
       <c r="R7" s="34"/>
       <c r="S7" s="35"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
         <v>2</v>
       </c>
@@ -3896,7 +3925,7 @@
       <c r="R8" s="34"/>
       <c r="S8" s="35"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
         <v>3</v>
       </c>
@@ -3919,7 +3948,7 @@
       <c r="R9" s="34"/>
       <c r="S9" s="35"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
         <v>4</v>
       </c>
@@ -3942,7 +3971,7 @@
       <c r="R10" s="34"/>
       <c r="S10" s="35"/>
     </row>
-    <row r="11" spans="1:19" ht="13" thickBot="1">
+    <row r="11" spans="1:19" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>5</v>
       </c>
@@ -3965,19 +3994,22 @@
       <c r="R11" s="37"/>
       <c r="S11" s="38"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47" t="s">
+      <c r="F15" s="45"/>
+      <c r="G15" s="45" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="I15" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="40" t="s">
         <v>7</v>
       </c>
@@ -3987,47 +4019,62 @@
       <c r="C16" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="45">
         <f>1/A18</f>
         <v>0.32959789057350036</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="42" t="s">
+      <c r="I16" s="46">
+        <f>G16*42</f>
+        <v>13.843111404087015</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="41"/>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="45">
         <f>1/B18</f>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="44">
+      <c r="I17" s="46">
+        <f t="shared" ref="I17:I18" si="0">G17*42</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="42">
         <v>3.0339999999999998</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="43">
         <v>5</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="43">
         <v>0.68</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="45">
         <f>1/C18</f>
         <v>1.4705882352941175</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="14">
+      <c r="I18" s="46">
+        <f t="shared" si="0"/>
+        <v>61.764705882352935</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -4035,8 +4082,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14">
-      <c r="B21" s="46" t="s">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="B21" s="44" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4056,20 +4103,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -4086,7 +4133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4097,14 +4144,14 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <f>'Biofuels_9.xls'!G17</f>
+        <f>Biofuels_9.xls!G17</f>
         <v>0.2</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4115,14 +4162,14 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <f>'Biofuels_9.xls'!G17</f>
+        <f>Biofuels_9.xls!G17</f>
         <v>0.2</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -4133,14 +4180,14 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <f>'Biofuels_9.xls'!G18</f>
+        <f>Biofuels_9.xls!G18</f>
         <v>1.4705882352941175</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -4151,14 +4198,14 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <f>'Biofuels_9.xls'!G18</f>
+        <f>Biofuels_9.xls!G18</f>
         <v>1.4705882352941175</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4169,14 +4216,14 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <f>'Biofuels_9.xls'!G16</f>
+        <f>Biofuels_9.xls!G16</f>
         <v>0.32959789057350036</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -4195,7 +4242,7 @@
         <v>Fernandes et al (2007)</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -4207,14 +4254,14 @@
       </c>
       <c r="D8">
         <f>'Bio EF Calcs.xlsx'!K4</f>
-        <v>0.32244196044712498</v>
+        <v>0.3214285714285714</v>
       </c>
       <c r="E8" t="str">
         <f>'Bio EF Calcs.xlsx'!F4</f>
         <v>Yevich &amp; Logan 2002</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -4226,14 +4273,14 @@
       </c>
       <c r="D9">
         <f>'Bio EF Calcs.xlsx'!K4</f>
-        <v>0.32244196044712498</v>
+        <v>0.3214285714285714</v>
       </c>
       <c r="E9" t="str">
         <f>'Bio EF Calcs.xlsx'!F4</f>
         <v>Yevich &amp; Logan 2002</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -4245,14 +4292,14 @@
       </c>
       <c r="D10">
         <f>'Bio EF Calcs.xlsx'!K5</f>
-        <v>0.34632655010987501</v>
+        <v>0.34523809523809523</v>
       </c>
       <c r="E10" t="str">
         <f>'Bio EF Calcs.xlsx'!F5</f>
         <v>Yevich &amp; Logan 2002</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
